--- a/MasterTestSuite.xlsx
+++ b/MasterTestSuite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iquantiin-my.sharepoint.com/personal/veeresh_hatti_iquanti_com/Documents/Documents/GitHub/selenium/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iquantiin-my.sharepoint.com/personal/kavyalakshmi_gk_iquanti_com/Documents/Documents/GitHub/hybridframework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:801_{F68D6898-C78D-4743-903E-A920ED61EC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9E31B50-3E42-469D-9D01-88E9B4E6234C}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:801_{F68D6898-C78D-4743-903E-A920ED61EC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA1A5B26-3554-45FE-B5E4-F54D6DA5548F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>LR Sitemap-30th August 2021</t>
+  </si>
+  <si>
+    <t>VBT_AMEX</t>
+  </si>
+  <si>
+    <t>VBT_Form_5th October 2021.xlsx</t>
   </si>
 </sst>
 </file>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +593,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -873,6 +879,17 @@
       </c>
       <c r="E15" s="4" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
